--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/133.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/133.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1042806391803582</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.603264282434294</v>
+        <v>-1.604659650385327</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04275103220392711</v>
+        <v>-0.04292417430727018</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1438723166327685</v>
+        <v>-0.1467637897585979</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.09655737509671308</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.584261936592392</v>
+        <v>-1.586540329270475</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07394966520722804</v>
+        <v>-0.07334838990289118</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1172619493680591</v>
+        <v>-0.1206697007656751</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.09522173186155868</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.633239902580345</v>
+        <v>-1.635209000501092</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.121847067068408</v>
+        <v>-0.1212095893242812</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1129853394154851</v>
+        <v>-0.1161129154095096</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1000092878895433</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.72775896380489</v>
+        <v>-1.729264513094414</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1483079025165938</v>
+        <v>-0.1480560594571857</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.123627282694599</v>
+        <v>-0.1269500370596648</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1012108489818547</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760657537459196</v>
+        <v>-1.760112139833665</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1088252068778874</v>
+        <v>-0.1091746391228161</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.114016321939937</v>
+        <v>-0.1170793631499882</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.08932776846890984</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.621937658279845</v>
+        <v>-1.620554095472222</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04441319639602063</v>
+        <v>-0.04468235366576305</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1153164617341314</v>
+        <v>-0.1179702579726444</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.05685765183154842</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.331595665183841</v>
+        <v>-1.332013567260547</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01051512059968902</v>
+        <v>-0.009139427887672217</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1095051831382893</v>
+        <v>-0.1129412668800887</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.00338795387801825</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9092375403461066</v>
+        <v>-0.9110476623356024</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01265421258553665</v>
+        <v>-0.00861842755852169</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06940074994666905</v>
+        <v>-0.07277859498098033</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.07166614780457589</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3801325867400017</v>
+        <v>-0.3846295593695578</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.06110094712005052</v>
+        <v>-0.05505828771337718</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02245877769211864</v>
+        <v>-0.02548404244325856</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1723727849655913</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1872525118961359</v>
+        <v>0.1795775946606737</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1231849833215135</v>
+        <v>-0.1140714126091826</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06058961918594825</v>
+        <v>0.05688595219352773</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3018898019469589</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8686249272586267</v>
+        <v>0.8586849965076129</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2539481958426895</v>
+        <v>-0.2428104365403658</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1403262798327985</v>
+        <v>0.1367202020258986</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4577437439481002</v>
       </c>
       <c r="E13" t="n">
-        <v>1.564857657145317</v>
+        <v>1.551774410209066</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4612953087107504</v>
+        <v>-0.4473211669518429</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2587224241179149</v>
+        <v>0.2554264280779113</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6291779843127783</v>
       </c>
       <c r="E14" t="n">
-        <v>2.291113227751697</v>
+        <v>2.275273873334049</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6937716368503768</v>
+        <v>-0.6780629260197959</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3799045822477336</v>
+        <v>0.3761914711405853</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7949929155018177</v>
       </c>
       <c r="E15" t="n">
-        <v>3.025338057169223</v>
+        <v>3.007488680333673</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9429868713354753</v>
+        <v>-0.9256773830585316</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4918362300016681</v>
+        <v>0.4883277413802888</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.940814875885404</v>
       </c>
       <c r="E16" t="n">
-        <v>3.645624364453155</v>
+        <v>3.62811969780517</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.230538128529413</v>
+        <v>-1.209394329672981</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6394776495605513</v>
+        <v>0.6337655341693511</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.070192110590769</v>
       </c>
       <c r="E17" t="n">
-        <v>4.240449338430928</v>
+        <v>4.222140348011958</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.487402308934472</v>
+        <v>-1.463660591518333</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7895115781838116</v>
+        <v>0.7833445712665554</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.19580060629885</v>
       </c>
       <c r="E18" t="n">
-        <v>4.768408406116726</v>
+        <v>4.750729023346277</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.729378629480709</v>
+        <v>-1.704772775566976</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9275278708159411</v>
+        <v>0.9199505427659995</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.322244794823952</v>
       </c>
       <c r="E19" t="n">
-        <v>5.198624034407993</v>
+        <v>5.180749473266503</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.021045946676848</v>
+        <v>-1.993708382578097</v>
       </c>
       <c r="G19" t="n">
-        <v>1.072732708775051</v>
+        <v>1.065270284120964</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.443589932298247</v>
       </c>
       <c r="E20" t="n">
-        <v>5.536720193625139</v>
+        <v>5.518307317944164</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.275593170935352</v>
+        <v>-2.247375730147795</v>
       </c>
       <c r="G20" t="n">
-        <v>1.223901505184769</v>
+        <v>1.216047149769478</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.546396354171247</v>
       </c>
       <c r="E21" t="n">
-        <v>5.821208409609025</v>
+        <v>5.803048951006579</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.499126709437308</v>
+        <v>-2.469594175673905</v>
       </c>
       <c r="G21" t="n">
-        <v>1.360312298313172</v>
+        <v>1.353096994661129</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.623919580240843</v>
       </c>
       <c r="E22" t="n">
-        <v>6.026254306521745</v>
+        <v>6.00901722312438</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.704149783072769</v>
+        <v>-2.675184683202594</v>
       </c>
       <c r="G22" t="n">
-        <v>1.476164827698266</v>
+        <v>1.468626850126357</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.675768138998511</v>
       </c>
       <c r="E23" t="n">
-        <v>6.167321048210955</v>
+        <v>6.148763362770819</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.823550151557275</v>
+        <v>-2.79549247371053</v>
       </c>
       <c r="G23" t="n">
-        <v>1.575529506787736</v>
+        <v>1.567717649888721</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.701049202577122</v>
       </c>
       <c r="E24" t="n">
-        <v>6.272020078102512</v>
+        <v>6.253152310895481</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.895381301167393</v>
+        <v>-2.868653669478146</v>
       </c>
       <c r="G24" t="n">
-        <v>1.622916926453615</v>
+        <v>1.615419873378859</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.700624329218495</v>
       </c>
       <c r="E25" t="n">
-        <v>6.289052539014107</v>
+        <v>6.270984373520696</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.973623430658568</v>
+        <v>-2.946774599496981</v>
       </c>
       <c r="G25" t="n">
-        <v>1.672410383703793</v>
+        <v>1.665911258751943</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.678817362292015</v>
       </c>
       <c r="E26" t="n">
-        <v>6.27660362178374</v>
+        <v>6.259588475082479</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.034664679192169</v>
+        <v>-3.007829227193114</v>
       </c>
       <c r="G26" t="n">
-        <v>1.690944458857109</v>
+        <v>1.684457926058229</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.640997400477973</v>
       </c>
       <c r="E27" t="n">
-        <v>6.179340258221207</v>
+        <v>6.163518218013892</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.048365728633531</v>
+        <v>-3.021745130244534</v>
       </c>
       <c r="G27" t="n">
-        <v>1.697212202998128</v>
+        <v>1.690938162780624</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.592769997768027</v>
       </c>
       <c r="E28" t="n">
-        <v>6.013466975180298</v>
+        <v>5.998913594384751</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.058660600696399</v>
+        <v>-3.031644136498393</v>
       </c>
       <c r="G28" t="n">
-        <v>1.6824384595256</v>
+        <v>1.676586256432604</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.536932344224492</v>
       </c>
       <c r="E29" t="n">
-        <v>5.841500664120834</v>
+        <v>5.828167148144296</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.01433464822145</v>
+        <v>-2.988553789033666</v>
       </c>
       <c r="G29" t="n">
-        <v>1.645324662664451</v>
+        <v>1.639607825215887</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.475645859286187</v>
       </c>
       <c r="E30" t="n">
-        <v>5.646939308575098</v>
+        <v>5.634893340239784</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.984568372618532</v>
+        <v>-2.959666603109995</v>
       </c>
       <c r="G30" t="n">
-        <v>1.574874714833275</v>
+        <v>1.569738690440471</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.410210153208614</v>
       </c>
       <c r="E31" t="n">
-        <v>5.40608605067191</v>
+        <v>5.395228466773177</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.881766035768142</v>
+        <v>-2.858535874566426</v>
       </c>
       <c r="G31" t="n">
-        <v>1.500173341355466</v>
+        <v>1.495248235524916</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.340990932520155</v>
       </c>
       <c r="E32" t="n">
-        <v>5.174752460414347</v>
+        <v>5.163611553073781</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.820403687333795</v>
+        <v>-2.796943719340369</v>
       </c>
       <c r="G32" t="n">
-        <v>1.426757941499759</v>
+        <v>1.421791911172055</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.267362214369808</v>
       </c>
       <c r="E33" t="n">
-        <v>4.879474343353944</v>
+        <v>4.86900082012081</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.69472376956486</v>
+        <v>-2.672738657488093</v>
       </c>
       <c r="G33" t="n">
-        <v>1.352193507685503</v>
+        <v>1.348049115339118</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.189850818513793</v>
       </c>
       <c r="E34" t="n">
-        <v>4.617300996452738</v>
+        <v>4.608549450138306</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.617895896254173</v>
+        <v>-2.596129572835267</v>
       </c>
       <c r="G34" t="n">
-        <v>1.251399619233892</v>
+        <v>1.247253652868386</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.108289839664035</v>
       </c>
       <c r="E35" t="n">
-        <v>4.300899542784481</v>
+        <v>4.294213109557195</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.542920643449258</v>
+        <v>-2.522565428172597</v>
       </c>
       <c r="G35" t="n">
-        <v>1.15966893288273</v>
+        <v>1.155611111588017</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.023804395806119</v>
       </c>
       <c r="E36" t="n">
-        <v>3.960980669424869</v>
+        <v>3.954609040021844</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.445915419022617</v>
+        <v>-2.426464477731144</v>
       </c>
       <c r="G36" t="n">
-        <v>1.078315754598304</v>
+        <v>1.075710752952552</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9387182522774845</v>
       </c>
       <c r="E37" t="n">
-        <v>3.677169281663142</v>
+        <v>3.671051069338646</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.376580663738883</v>
+        <v>-2.357872659472664</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9920988572290592</v>
+        <v>0.9890814625735258</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8536200728822113</v>
       </c>
       <c r="E38" t="n">
-        <v>3.374337446839617</v>
+        <v>3.370692018554685</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.308539752172857</v>
+        <v>-2.289781379294757</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9019044135402872</v>
+        <v>0.8996142157187946</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7704703713232994</v>
       </c>
       <c r="E39" t="n">
-        <v>3.054920172534948</v>
+        <v>3.052637844809062</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.229429551136285</v>
+        <v>-2.21217908857639</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8130730704105615</v>
+        <v>0.811347945453616</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6907748991191976</v>
       </c>
       <c r="E40" t="n">
-        <v>2.776460449785643</v>
+        <v>2.772777245041799</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.156033039510034</v>
+        <v>-2.138341064586614</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7456940338850431</v>
+        <v>0.7444867612190054</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6147917990556516</v>
       </c>
       <c r="E41" t="n">
-        <v>2.47871269672392</v>
+        <v>2.475945571108673</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.094630553588094</v>
+        <v>-2.078218256210292</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6867407217158471</v>
+        <v>0.6862496277500012</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.542398518911971</v>
       </c>
       <c r="E42" t="n">
-        <v>2.201361083436011</v>
+        <v>2.199697345224796</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.007937515434655</v>
+        <v>-1.992355513143339</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6141044613251843</v>
+        <v>0.6144743558186899</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4725514504229604</v>
       </c>
       <c r="E43" t="n">
-        <v>1.948469727293114</v>
+        <v>1.946829599368719</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.945086144911558</v>
+        <v>-1.929473449247377</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5444100426722324</v>
+        <v>0.5441219971730343</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4039808732901618</v>
       </c>
       <c r="E44" t="n">
-        <v>1.746930744982653</v>
+        <v>1.744887668163205</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.892617791522121</v>
+        <v>-1.877940063215992</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4778306078603345</v>
+        <v>0.4776307074319294</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3376197873940638</v>
       </c>
       <c r="E45" t="n">
-        <v>1.532934975346218</v>
+        <v>1.532362032386065</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.807242994382772</v>
+        <v>-1.792802942963959</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4270118265100206</v>
+        <v>0.4266891525901539</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2739767994186402</v>
       </c>
       <c r="E46" t="n">
-        <v>1.337585036220711</v>
+        <v>1.336270730254425</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.747209905096364</v>
+        <v>-1.733388443192222</v>
       </c>
       <c r="G46" t="n">
-        <v>0.37416413451235</v>
+        <v>0.3750188268952163</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2140917078728017</v>
       </c>
       <c r="E47" t="n">
-        <v>1.182342678325067</v>
+        <v>1.181835844168008</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.715472957553578</v>
+        <v>-1.702074119783506</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3273276215389267</v>
+        <v>0.327088370632489</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1603387795272872</v>
       </c>
       <c r="E48" t="n">
-        <v>1.004826375843896</v>
+        <v>1.005207288471251</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.652986759466622</v>
+        <v>-1.639476953348499</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2561205705104049</v>
+        <v>0.2561268665868901</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1139595806938108</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8585464828249384</v>
+        <v>0.858869156744805</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.602819622032527</v>
+        <v>-1.589206717661958</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2212812312795355</v>
+        <v>0.2215787208934613</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.07509860571909753</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7588087612037203</v>
+        <v>0.7593329095711134</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.552607625053474</v>
+        <v>-1.538236830475999</v>
       </c>
       <c r="G50" t="n">
-        <v>0.179437506958878</v>
+        <v>0.1796799059035583</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.04243819587916103</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6433717728666493</v>
+        <v>0.6438849031001932</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.51562053673159</v>
+        <v>-1.500877486631927</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1455063767609991</v>
+        <v>0.1456086880038836</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.01390312310925966</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5367729018956814</v>
+        <v>0.5364895784538473</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.471186763946832</v>
+        <v>-1.457096931782509</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1057608199290354</v>
+        <v>0.1062503398757599</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.01222702076081692</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4692805359934292</v>
+        <v>0.467944193759445</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.430306339328411</v>
+        <v>-1.417511924900918</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07410729539967856</v>
+        <v>0.07431978798105415</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.03731723767659099</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3794638568937694</v>
+        <v>0.3763535951100792</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.379763798333885</v>
+        <v>-1.365597626242179</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04279061096228007</v>
+        <v>0.04356030631259611</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.0621279804950927</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2906010333816177</v>
+        <v>0.2861701695551563</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.348005601532962</v>
+        <v>-1.334047199965267</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00781275804873619</v>
+        <v>0.009018456695652516</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.08719373437715135</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2272089872903539</v>
+        <v>0.222205180503739</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.327645664198937</v>
+        <v>-1.314062666191673</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008852956407595492</v>
+        <v>-0.008221774739953917</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1123240554527294</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1514829273645778</v>
+        <v>0.1463358848379245</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.334554034122326</v>
+        <v>-1.321045802023324</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04487753203680434</v>
+        <v>-0.04412829893506521</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1375158394572902</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08822624691774572</v>
+        <v>0.08303355783657476</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.313980817197365</v>
+        <v>-1.301297371117925</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07471936055754408</v>
+        <v>-0.0743116896051272</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1628550819920811</v>
       </c>
       <c r="E59" t="n">
-        <v>0.05178455622139221</v>
+        <v>0.04578754336923659</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.324300873566173</v>
+        <v>-1.311695341433237</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0999414429572663</v>
+        <v>-0.0992661887542283</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1881376606789726</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.0006129663075863923</v>
+        <v>-0.008031318426276534</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.327676357571803</v>
+        <v>-1.315805105358953</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1043203641527248</v>
+        <v>-0.1040024122902221</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2134319102442518</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.03827137378470535</v>
+        <v>-0.04664987756738891</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.307563541239823</v>
+        <v>-1.295837885795693</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.135473350601508</v>
+        <v>-0.135153824719884</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2386366727453881</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.09234207863962657</v>
+        <v>-0.1005584584528162</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.332568409000805</v>
+        <v>-1.320483877197019</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1427563370757663</v>
+        <v>-0.1428224458788609</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2632695886159432</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1346107881230353</v>
+        <v>-0.1440596249082033</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.372794041664766</v>
+        <v>-1.360305773956366</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.161877521361327</v>
+        <v>-0.1616965091623775</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2875963356489253</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1879417039909451</v>
+        <v>-0.198797713870556</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.414709383855442</v>
+        <v>-1.401652108234692</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1773816097061388</v>
+        <v>-0.1774477185092335</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3113769601775025</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2399567398734477</v>
+        <v>-0.2519334513674246</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.447381298756281</v>
+        <v>-1.434544385812513</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.202833498897571</v>
+        <v>-0.2028602572226331</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3343320822194188</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3066794104253838</v>
+        <v>-0.3187301008180619</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.488831518296613</v>
+        <v>-1.476708423024355</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2084448770650079</v>
+        <v>-0.2088667141895165</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3565508101212243</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.2930389607201921</v>
+        <v>-0.3061442439241416</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.534984906971392</v>
+        <v>-1.523082961385677</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2414914085167159</v>
+        <v>-0.2419463000427717</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3778972648810547</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3215900935614652</v>
+        <v>-0.3332756115180016</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.567126377428352</v>
+        <v>-1.553725178629598</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2518594724687235</v>
+        <v>-0.2522451071534422</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3982707005817484</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3499853985097297</v>
+        <v>-0.3613057440301242</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.627027249108571</v>
+        <v>-1.613086161751211</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2586482169388933</v>
+        <v>-0.2582279538335061</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4179269704566884</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3765312309904658</v>
+        <v>-0.3877571353635823</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.644553165014693</v>
+        <v>-1.63116455836891</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2690666495027826</v>
+        <v>-0.2685771295560581</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4367447997518142</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.384264386933416</v>
+        <v>-0.3943916259598647</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.683824942091146</v>
+        <v>-1.669375446557605</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2878966402509027</v>
+        <v>-0.2871615733212553</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4543010857346872</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3828918422596418</v>
+        <v>-0.3925484495688216</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.717016283302013</v>
+        <v>-1.702015094066457</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2854411704216737</v>
+        <v>-0.2847501760274226</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4702988096170234</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3445424403882719</v>
+        <v>-0.3532357479952156</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.740835127655096</v>
+        <v>-1.726878300106523</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2883058852224409</v>
+        <v>-0.2870010233708826</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4839759254813702</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3028183415208333</v>
+        <v>-0.3116958093649691</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.7736597224107</v>
+        <v>-1.759265317546405</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2931507160778044</v>
+        <v>-0.2917278027921486</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4946840249553004</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2404934803938112</v>
+        <v>-0.2482958931780987</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.792382679858572</v>
+        <v>-1.778636770872253</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2975941720572363</v>
+        <v>-0.2954031374403857</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5020236193106143</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1331312101490126</v>
+        <v>-0.140666039682679</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.800285829866623</v>
+        <v>-1.786778384777181</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2810323428629104</v>
+        <v>-0.2784116010259448</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.504863259970426</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.04765567578590005</v>
+        <v>-0.05407295174344295</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.786566679205366</v>
+        <v>-1.773068678230652</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2676374401406416</v>
+        <v>-0.2649584595961878</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5025572942551336</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08715591391526126</v>
+        <v>0.08113056871892223</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.790319927800107</v>
+        <v>-1.776961227517629</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2407547675679471</v>
+        <v>-0.2371880402390798</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4946615952527227</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2148985837426612</v>
+        <v>0.208752039073982</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.818530285501619</v>
+        <v>-1.805728787988081</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2239710016775179</v>
+        <v>-0.2206199149682687</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4811540738182206</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3619969667046957</v>
+        <v>0.3552822011332269</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.773803745160299</v>
+        <v>-1.762765149062617</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1979729278509944</v>
+        <v>-0.1943825902353076</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4625868773189314</v>
       </c>
       <c r="E81" t="n">
-        <v>0.49139078259034</v>
+        <v>0.4852552560555099</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.751280318544047</v>
+        <v>-1.741188494947828</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1690818068795203</v>
+        <v>-0.1657999770116084</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4394576070901821</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6712555216004908</v>
+        <v>0.6637883748890404</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.710918533226094</v>
+        <v>-1.70183722990575</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1429121649687751</v>
+        <v>-0.1398569938543304</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4118889714634276</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8435035820826677</v>
+        <v>0.8370831580868823</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.64009554286317</v>
+        <v>-1.632654367467221</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1253162052117547</v>
+        <v>-0.1210348732018168</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3805056421660281</v>
       </c>
       <c r="E84" t="n">
-        <v>1.02639515986308</v>
+        <v>1.018735982818831</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.558585749676174</v>
+        <v>-1.553175845956264</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1095744399796265</v>
+        <v>-0.105132558019316</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3459464321776739</v>
       </c>
       <c r="E85" t="n">
-        <v>1.174066485785268</v>
+        <v>1.165788719226347</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.453911117080997</v>
+        <v>-1.448206084775842</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.09037612875712202</v>
+        <v>-0.0850795544139452</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.308562465807697</v>
       </c>
       <c r="E86" t="n">
-        <v>1.335105956104663</v>
+        <v>1.327479833461961</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.336108378004611</v>
+        <v>-1.3314004868128</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06031865961676408</v>
+        <v>-0.05496856862346304</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2695308370829163</v>
       </c>
       <c r="E87" t="n">
-        <v>1.476959707354523</v>
+        <v>1.46801298266905</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.204963465846519</v>
+        <v>-1.201311741485102</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03670522475901116</v>
+        <v>-0.03102458975023698</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2300496887813966</v>
       </c>
       <c r="E88" t="n">
-        <v>1.565854011249101</v>
+        <v>1.558678058075091</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.058018549748811</v>
+        <v>-1.055588264225523</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.02244618553914823</v>
+        <v>-0.01694341469108103</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1920644632435997</v>
       </c>
       <c r="E89" t="n">
-        <v>1.671445509982436</v>
+        <v>1.663734390307184</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9107556817886011</v>
+        <v>-0.9100938067480943</v>
       </c>
       <c r="G89" t="n">
-        <v>0.001578068309264165</v>
+        <v>0.007213056763520628</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1582768346172651</v>
       </c>
       <c r="E90" t="n">
-        <v>1.714890011749456</v>
+        <v>1.70766998604005</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7178541294062774</v>
+        <v>-0.7191432510666226</v>
       </c>
       <c r="G90" t="n">
-        <v>0.002360355812550607</v>
+        <v>0.008640692106540351</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1309492518297636</v>
       </c>
       <c r="E91" t="n">
-        <v>1.730702607842043</v>
+        <v>1.725439087900414</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.532574764618852</v>
+        <v>-0.5342290587153391</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01507662801321841</v>
+        <v>-0.009616355681426327</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1123599954989611</v>
       </c>
       <c r="E92" t="n">
-        <v>1.702604792507704</v>
+        <v>1.698029118922083</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3679953252956521</v>
+        <v>-0.3702918191936299</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01830966328837003</v>
+        <v>-0.01290290760670216</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1044017938581024</v>
       </c>
       <c r="E93" t="n">
-        <v>1.658286710128362</v>
+        <v>1.654773499449619</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2153060264147576</v>
+        <v>-0.2178323271044452</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03270879021002872</v>
+        <v>-0.02827635236444598</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1078229092775493</v>
       </c>
       <c r="E94" t="n">
-        <v>1.558788239413582</v>
+        <v>1.556501189630332</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.07621467872277973</v>
+        <v>-0.07947919438035736</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03933383669158332</v>
+        <v>-0.03445437741555118</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1220112939750803</v>
       </c>
       <c r="E95" t="n">
-        <v>1.489361404011251</v>
+        <v>1.486545483803244</v>
       </c>
       <c r="F95" t="n">
-        <v>0.03044085693655488</v>
+        <v>0.02719365548931156</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0740944749663877</v>
+        <v>-0.06999730319364202</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1442262314695489</v>
       </c>
       <c r="E96" t="n">
-        <v>1.404762598298703</v>
+        <v>1.402440920094784</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1129351990839239</v>
+        <v>0.1090788522367372</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.103059574836563</v>
+        <v>-0.09910091674649173</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1680838864284997</v>
       </c>
       <c r="E97" t="n">
-        <v>1.324345961391451</v>
+        <v>1.322383159547189</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1761273447467826</v>
+        <v>0.172219055268593</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1231361887287532</v>
+        <v>-0.1187336572464752</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1878940482559564</v>
       </c>
       <c r="E98" t="n">
-        <v>1.230150361096333</v>
+        <v>1.227709057439195</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2095122903095702</v>
+        <v>0.2051491093053247</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1434677937185942</v>
+        <v>-0.1393847881179402</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1989182067950263</v>
       </c>
       <c r="E99" t="n">
-        <v>1.144536313050546</v>
+        <v>1.141415033133006</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2300768501293637</v>
+        <v>0.2259859744331032</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1457894719225127</v>
+        <v>-0.1417552609146191</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2005285063204144</v>
       </c>
       <c r="E100" t="n">
-        <v>1.056145695274784</v>
+        <v>1.053221167747407</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2420740238719176</v>
+        <v>0.2379768520991719</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1602405414751743</v>
+        <v>-0.156286605442467</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1948408702130992</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9656332997235094</v>
+        <v>0.9626190531062186</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2374589998082639</v>
+        <v>0.2321325191017824</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1743138464387238</v>
+        <v>-0.1700152002184516</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1921948034010931</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9041883152852944</v>
+        <v>0.9016053499072401</v>
       </c>
       <c r="F102" t="n">
-        <v>0.243400921991174</v>
+        <v>0.2383121181720089</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2002568295960017</v>
+        <v>-0.1954592193142772</v>
       </c>
     </row>
   </sheetData>
